--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D62B4-3D62-45CA-B2E5-62021CFA4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F109E-5B62-42DC-BBC2-8F013584EB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hlavni_menu" sheetId="1" r:id="rId1"/>
+    <sheet name="pridat_ukol" sheetId="2" r:id="rId2"/>
+    <sheet name="zobrazit_ukoly" sheetId="3" r:id="rId3"/>
+    <sheet name="odstranit_ukol" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -83,6 +86,80 @@
   </si>
   <si>
     <t>TC03:</t>
+  </si>
+  <si>
+    <t>TC01: Přidání nového úkolu</t>
+  </si>
+  <si>
+    <t>Přidání nového úkolu a jeho popisu do celkového seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Program je spuštěný a nabízí uživateli možnost přidat nový úkol</t>
+  </si>
+  <si>
+    <t>1. Spustit program v editoru nebo přes CMD
+2. Vybrat možnost přidání nového úkolu
+3. Vyplnění názvu úkolu
+4. Vyplnění popisu úkolu</t>
+  </si>
+  <si>
+    <t>Program nabídne uživateli zadat název a popis úkolu a přidá zadaný úkol s popisem do seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Program správně vybídl uživatele k vyplnění názvu úkolu a popisu a přidal úkol do seznamu</t>
+  </si>
+  <si>
+    <t>TC01: Odstranění existujícího úkolu</t>
+  </si>
+  <si>
+    <t>TC02: Odstranění neexistujícího úkolu</t>
+  </si>
+  <si>
+    <t>TC01: Přidání několika úkolů</t>
+  </si>
+  <si>
+    <t>Přidání několika úkolů do seznamu</t>
+  </si>
+  <si>
+    <t>1. Spustit program v editoru nebo přes CMD
+2. Vybrat možnost přidání nového úkolu
+3. Vyplnění názvu úkolu
+4. Vyplnění popisu úkolu
+5. Zopakovat přidání úkolu ještě minimálně jednou</t>
+  </si>
+  <si>
+    <t>Program nabídne uživateli zadat název a popis úkolu a přidá všechny úkoly s popisem do seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Program pokaždé správně vybídl uživatele k vyplnění názvu úkolu a popisu a přidal každý jednotlivý úkol do seznamu</t>
+  </si>
+  <si>
+    <t>Důležité pro zjištění, že se funkce nerozbije při zadání více než jen jednoho úkolu</t>
+  </si>
+  <si>
+    <t>TC01: Zobrazení seznamu úkolů, kde je alespoň 1 úkol</t>
+  </si>
+  <si>
+    <t>TC01: Zobrazení seznamu úkolů, kde není žádný úkol</t>
+  </si>
+  <si>
+    <t>Uživatel odstraní úkol, který je uložený v seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Uživatel zobrazí seznam úkolů, ve kterém je uložený alespoň 1 úkol</t>
+  </si>
+  <si>
+    <t>V seznamu úkolů je uložený alespoň 1 úkol</t>
+  </si>
+  <si>
+    <t>1. Uživatel uloží úkol do seznamu (prerekvizita)
+2. Uživatel vybere možnost zobrazit úkoly</t>
+  </si>
+  <si>
+    <t>Program zobrazí seznam úkolů</t>
+  </si>
+  <si>
+    <t>Program zobrazil seznam uložených úkolů</t>
   </si>
 </sst>
 </file>
@@ -430,9 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,7 +629,7 @@
       <c r="B17" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -562,4 +637,357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0187178-B5BE-4A54-A57D-9F7C2D8AF400}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9D66A-242C-47D9-8263-D8561366B7F7}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F109E-5B62-42DC-BBC2-8F013584EB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C3DB7-24F4-43E6-BB06-A2A13638081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hlavni_menu" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -140,9 +140,6 @@
     <t>TC01: Zobrazení seznamu úkolů, kde je alespoň 1 úkol</t>
   </si>
   <si>
-    <t>TC01: Zobrazení seznamu úkolů, kde není žádný úkol</t>
-  </si>
-  <si>
     <t>Uživatel odstraní úkol, který je uložený v seznamu úkolů</t>
   </si>
   <si>
@@ -160,6 +157,30 @@
   </si>
   <si>
     <t>Program zobrazil seznam uložených úkolů</t>
+  </si>
+  <si>
+    <t>TC03: Přidání úkolu bez názvu</t>
+  </si>
+  <si>
+    <t>Přidání úkolu s nevyplněným názvem a popisem</t>
+  </si>
+  <si>
+    <t>1. Spustit program
+2. Vybrat možnost přidání nového úkolu
+3. Nevyplnit název a pokračovat dále
+4. Nevyplnit popis a uložit úkol bez názvu a popisu</t>
+  </si>
+  <si>
+    <t>Důležité pro zjištění, že uživatel nemůže vložit do seznamu prázdný úkol. Jedná se o negativní testovací případ, který správně nemá projít.</t>
+  </si>
+  <si>
+    <t>Program pokaždé správně vybídl uživatele k vyplnění názvu úkolu a popisu.</t>
+  </si>
+  <si>
+    <t>Program uživatele upozorní u obou kroků, že musí zadat název i popis. Uživatel nemůže nechat název a popis úkolu prázdný.</t>
+  </si>
+  <si>
+    <t>TC02: Zobrazení prázdného seznamu úkolů</t>
   </si>
 </sst>
 </file>
@@ -507,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,7 +662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0187178-B5BE-4A54-A57D-9F7C2D8AF400}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,6 +793,67 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -781,9 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9D66A-242C-47D9-8263-D8561366B7F7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -798,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -806,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -814,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -830,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +927,7 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,9 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -914,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C3DB7-24F4-43E6-BB06-A2A13638081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A07CD6-DE1D-41A3-894B-B8C0A901CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hlavni_menu" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>TC02: Odstranění neexistujícího úkolu</t>
-  </si>
-  <si>
-    <t>TC01: Přidání několika úkolů</t>
   </si>
   <si>
     <t>Přidání několika úkolů do seznamu</t>
@@ -181,6 +178,34 @@
   </si>
   <si>
     <t>TC02: Zobrazení prázdného seznamu úkolů</t>
+  </si>
+  <si>
+    <t>TC02: Přidání několika úkolů</t>
+  </si>
+  <si>
+    <t>TC03: Odstranění neexistujícího úkolu</t>
+  </si>
+  <si>
+    <t>Uživatel má uložený alespoň 1 úkol v seznamu úkolů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uživatel vybere možnost Odstranit úkol
+2. Uživatel vybere z nabízených úkolů ten, který chce odstranit
+</t>
+  </si>
+  <si>
+    <t>Program odstraní úkol ze seznamu a nadále ho při zobrazení úkolů již nezobrazuje</t>
+  </si>
+  <si>
+    <t>Program úkol úspěšně odstranil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uživatel vybere možnost Odstranit úkol
+2. Uživatel vybere k odstranění číslo úkolu, které se v seznamů úkolů nenachází (např. větší číslo, než kolik je celkový počet úkolů v seznamu)
+</t>
+  </si>
+  <si>
+    <t>Program nabídne uživateli hlášku o tom, že daný úkol neexistuje</t>
   </si>
 </sst>
 </file>
@@ -528,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -668,7 +693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,7 +759,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -766,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -774,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,12 +815,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -827,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -835,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -878,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -886,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -894,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -910,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +952,7 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,9 +997,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -982,72 +1009,100 @@
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,6 +1117,46 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A07CD6-DE1D-41A3-894B-B8C0A901CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292295D-C972-40AB-9CCA-B319991C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>TC02: Přidání několika úkolů</t>
-  </si>
-  <si>
-    <t>TC03: Odstranění neexistujícího úkolu</t>
   </si>
   <si>
     <t>Uživatel má uložený alespoň 1 úkol v seznamu úkolů</t>
@@ -689,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0187178-B5BE-4A54-A57D-9F7C2D8AF400}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1000,7 +997,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1036,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1094,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1102,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1119,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">

--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292295D-C972-40AB-9CCA-B319991C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC9D8B-D677-476B-88D0-8A40C4C4841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hlavni_menu" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Program vypsal v konzoli informaci o neplatné hodnotě a znovu zobrazil menu s možností výběru</t>
-  </si>
-  <si>
-    <t>TC03:</t>
   </si>
   <si>
     <t>TC01: Přidání nového úkolu</t>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Program nabídne uživateli zadat název a popis úkolu a přidá zadaný úkol s popisem do seznamu úkolů</t>
-  </si>
-  <si>
-    <t>Program správně vybídl uživatele k vyplnění názvu úkolu a popisu a přidal úkol do seznamu</t>
   </si>
   <si>
     <t>TC01: Odstranění existujícího úkolu</t>
@@ -131,9 +125,6 @@
     <t>Program pokaždé správně vybídl uživatele k vyplnění názvu úkolu a popisu a přidal každý jednotlivý úkol do seznamu</t>
   </si>
   <si>
-    <t>Důležité pro zjištění, že se funkce nerozbije při zadání více než jen jednoho úkolu</t>
-  </si>
-  <si>
     <t>TC01: Zobrazení seznamu úkolů, kde je alespoň 1 úkol</t>
   </si>
   <si>
@@ -203,6 +194,61 @@
   </si>
   <si>
     <t>Program nabídne uživateli hlášku o tom, že daný úkol neexistuje</t>
+  </si>
+  <si>
+    <t>TC03: Znovuzobrazení hlavního menu po provedení akce</t>
+  </si>
+  <si>
+    <t>Zobrazení hlavního menu poté, co uživatel provede jednu z akcí (kromě ukončení programu)</t>
+  </si>
+  <si>
+    <t>1. Uživatel vybere libovolnou možnost z menu (kromě ukončení programu)
+2. Uživatel akci úspěšně dokončí</t>
+  </si>
+  <si>
+    <t>Program zobrazí hlavní menu pro výběr další možnosti</t>
+  </si>
+  <si>
+    <t>Program zobrazil hlavní menu</t>
+  </si>
+  <si>
+    <t>Důležité pro zjištění, že se funkce nerozbije při zadání více než jen jednoho úkolu.</t>
+  </si>
+  <si>
+    <t>Program správně vybídl uživatele k vyplnění názvu úkolu a popisu a přidal úkol do seznamu.</t>
+  </si>
+  <si>
+    <t>Uživatel nemá uložený v seznamu žádný úkol</t>
+  </si>
+  <si>
+    <t>Zobrazení seznamu úkolů v případě, kdy neobsahuje žádný úkol</t>
+  </si>
+  <si>
+    <t>1. Uživatel vybere možnost zobrazit úkoly</t>
+  </si>
+  <si>
+    <t>Program uživatele informuje o tom, že nemá uložené v seznamu žádné úkoly</t>
+  </si>
+  <si>
+    <t>Program nabídl informační hlášku a znovu vypsal hlavní menu</t>
+  </si>
+  <si>
+    <t>TC03: Odstranění úkolu z prázdného seznamu</t>
+  </si>
+  <si>
+    <t>Odstranění úkolu ze seznamu, který neobsahuje žádný uložený úkol</t>
+  </si>
+  <si>
+    <t>Uživatel neuložil do seznamu žádný úkol</t>
+  </si>
+  <si>
+    <t>1. Uživatel vybere možnost odstranit úkol</t>
+  </si>
+  <si>
+    <t>Program vypíše hlášku o tom, že uživatel nemá žádné úkoly k odstranění</t>
+  </si>
+  <si>
+    <t>Program vypsal informační hlášku</t>
   </si>
 </sst>
 </file>
@@ -255,10 +301,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -548,132 +592,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0187178-B5BE-4A54-A57D-9F7C2D8AF400}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,185 +898,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -888,104 +1091,127 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -996,164 +1222,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC9D8B-D677-476B-88D0-8A40C4C4841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34544335-EFEA-4164-B5FC-26680C4A7B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>TC01: Zobrazení hlavního menu</t>
   </si>
@@ -177,11 +177,6 @@
     <t>Uživatel má uložený alespoň 1 úkol v seznamu úkolů</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uživatel vybere možnost Odstranit úkol
-2. Uživatel vybere z nabízených úkolů ten, který chce odstranit
-</t>
-  </si>
-  <si>
     <t>Program odstraní úkol ze seznamu a nadále ho při zobrazení úkolů již nezobrazuje</t>
   </si>
   <si>
@@ -193,9 +188,6 @@
 </t>
   </si>
   <si>
-    <t>Program nabídne uživateli hlášku o tom, že daný úkol neexistuje</t>
-  </si>
-  <si>
     <t>TC03: Znovuzobrazení hlavního menu po provedení akce</t>
   </si>
   <si>
@@ -249,6 +241,41 @@
   </si>
   <si>
     <t>Program vypsal informační hlášku</t>
+  </si>
+  <si>
+    <t>TC02: Zobrazení seznamu po odstranění úkolu</t>
+  </si>
+  <si>
+    <t>Zobrazení seznamu úkolů potom, co uživatel odstraní alespoň 1 úkol</t>
+  </si>
+  <si>
+    <t>Uživatel má v seznamu uložený alespoň 1 úkol</t>
+  </si>
+  <si>
+    <t>1. Uživatel odebere jeden nebo více úkolů ze seznamu
+2. Uživatel si zobrazí seznam aktuálních úkolů</t>
+  </si>
+  <si>
+    <t>Program správně vypíše seznam aktivních úkolů, smazané úkoly se nezobrazují.</t>
+  </si>
+  <si>
+    <t>Program správně vypsal aktuální seznam úkolů</t>
+  </si>
+  <si>
+    <t>Program vypsal hlášku o tom, že uživatel zadal neplatný vstup a nabídl nový pokus.</t>
+  </si>
+  <si>
+    <t>Program nabídne uživateli hlášku o tom, že daný úkol neexistuje.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Program je spuštěný.</t>
+  </si>
+  <si>
+    <t>1. Uživatel vybere možnost Odstranit úkol
+2. Uživatel vybere z nabízených úkolů ten, který chce odstranit</t>
   </si>
 </sst>
 </file>
@@ -628,7 +655,9 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -686,7 +715,9 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -726,7 +757,9 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -784,7 +817,9 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -800,7 +835,7 @@
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -813,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -824,7 +859,9 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -835,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -847,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -859,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -877,6 +914,9 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,13 +1126,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9D66A-242C-47D9-8263-D8561366B7F7}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1109,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1145,13 +1186,17 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1164,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1172,23 +1217,23 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1196,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1256,69 @@
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1222,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1252,12 +1359,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1265,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,13 +1380,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1312,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1320,18 +1430,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1340,7 +1456,7 @@
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1348,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1372,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">

--- a/Testovací scénáře.xlsx
+++ b/Testovací scénáře.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sochor\Desktop\ENGETO projekty\Task-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34544335-EFEA-4164-B5FC-26680C4A7B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F71823B-5E9A-4124-8D35-752E7452857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,12 +308,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +343,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,7 +712,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -805,7 +814,7 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
@@ -907,7 +916,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -987,7 +996,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1046,7 +1055,7 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1107,7 +1116,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1128,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9D66A-242C-47D9-8263-D8561366B7F7}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1186,7 +1195,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1248,7 +1257,7 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1310,7 +1319,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1329,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127852D9-1A62-48A1-8767-B00EDCAF822A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1387,7 +1396,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1445,7 +1454,7 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1503,7 +1512,7 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
